--- a/data/CS1/CS1_market_data.xlsx
+++ b/data/CS1/CS1_market_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\grid_management_tools\data\CS1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D2D1E-242C-4F73-B48E-735B108440BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2283C38D-5723-40B7-AD30-DB34197DA3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15195" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-15210" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Cp" sheetId="2" r:id="rId2"/>
-    <sheet name="Flex" sheetId="18" r:id="rId3"/>
+    <sheet name="Cflex" sheetId="18" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -365,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
